--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_28_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_28_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,936 +518,936 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_28_8_5</t>
+          <t>model_28_8_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9964675703087709</v>
+        <v>0.9719391864444251</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7235096827525929</v>
+        <v>0.7807969581364289</v>
       </c>
       <c r="D2" t="n">
-        <v>0.995446685591043</v>
+        <v>0.8769928486761938</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9899002301670831</v>
+        <v>0.9718897964910566</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9935831836024329</v>
+        <v>0.9462457503074553</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02362137361059264</v>
+        <v>0.1876427894542948</v>
       </c>
       <c r="H2" t="n">
-        <v>1.848892024554258</v>
+        <v>1.465811750278899</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05177538926202092</v>
+        <v>0.2595478974681847</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06217405641766079</v>
+        <v>0.09382762267718268</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05697472283984086</v>
+        <v>0.1766877600726837</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2454081442205908</v>
+        <v>0.5788645469377131</v>
       </c>
       <c r="M2" t="n">
-        <v>0.153692464391045</v>
+        <v>0.4331775495732608</v>
       </c>
       <c r="N2" t="n">
-        <v>1.001389808403107</v>
+        <v>1.011040320087439</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1602354707874329</v>
+        <v>0.4516188146597397</v>
       </c>
       <c r="P2" t="n">
-        <v>177.4912066306974</v>
+        <v>173.3464303592855</v>
       </c>
       <c r="Q2" t="n">
-        <v>281.0956517444944</v>
+        <v>276.9508754730825</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_28_8_6</t>
+          <t>model_28_8_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9965816471156713</v>
+        <v>0.9709287032373006</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7234998842241145</v>
+        <v>0.7788187652722335</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9954738529108453</v>
+        <v>0.8048770338039988</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9895843392027019</v>
+        <v>0.9586051702448284</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9934910725113006</v>
+        <v>0.9163536317837103</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02285854147757376</v>
+        <v>0.1943998953131836</v>
       </c>
       <c r="H3" t="n">
-        <v>1.848957547359311</v>
+        <v>1.479039935070515</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05146647175015224</v>
+        <v>0.4117139132066577</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06411867723240924</v>
+        <v>0.138169702891647</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05779257449128074</v>
+        <v>0.2749417864240212</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2247976642036407</v>
+        <v>0.6211931686432225</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1511904146352333</v>
+        <v>0.4409080349836955</v>
       </c>
       <c r="N3" t="n">
-        <v>1.001344925724982</v>
+        <v>1.011437887250898</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1576269035935592</v>
+        <v>0.4596784028384074</v>
       </c>
       <c r="P3" t="n">
-        <v>177.5568608500636</v>
+        <v>173.2756758509368</v>
       </c>
       <c r="Q3" t="n">
-        <v>281.1613059638606</v>
+        <v>276.8801209647338</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_28_8_4</t>
+          <t>model_28_8_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9963175397972277</v>
+        <v>0.9689053075806499</v>
       </c>
       <c r="C4" t="n">
-        <v>0.723498328324285</v>
+        <v>0.7757430820891829</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9954122573239076</v>
+        <v>0.7264050763994259</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9902297270226995</v>
+        <v>0.9452827119976431</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9936753619322181</v>
+        <v>0.8844021645752912</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02462462833210813</v>
+        <v>0.2079303513860875</v>
       </c>
       <c r="H4" t="n">
-        <v>1.848967951668636</v>
+        <v>1.499607042677793</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05216687044966917</v>
+        <v>0.5772915347951357</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06014567790711586</v>
+        <v>0.1826380606234478</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05615627417839252</v>
+        <v>0.3799647977092917</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2683029920491456</v>
+        <v>0.6540487710734263</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1569223640279107</v>
+        <v>0.4559938063023307</v>
       </c>
       <c r="N4" t="n">
-        <v>1.001448836801091</v>
+        <v>1.012233977345318</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1636028739386539</v>
+        <v>0.4754064066739286</v>
       </c>
       <c r="P4" t="n">
-        <v>177.4080163703005</v>
+        <v>173.1411042089213</v>
       </c>
       <c r="Q4" t="n">
-        <v>281.0124614840976</v>
+        <v>276.7455493227184</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_28_8_7</t>
+          <t>model_28_8_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9966673563749419</v>
+        <v>0.9662412222410272</v>
       </c>
       <c r="C5" t="n">
-        <v>0.723474851787634</v>
+        <v>0.7720170978179501</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9954951370316109</v>
+        <v>0.6456058578428527</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9892844826189952</v>
+        <v>0.9324472541478126</v>
       </c>
       <c r="F5" t="n">
-        <v>0.993400752856017</v>
+        <v>0.8519509951012594</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02228540326617692</v>
+        <v>0.22574510231913</v>
       </c>
       <c r="H5" t="n">
-        <v>1.84912493937732</v>
+        <v>1.524522716656106</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0512244516437514</v>
+        <v>0.7477797305442248</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06596459060083347</v>
+        <v>0.2254808844272533</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05859452003685151</v>
+        <v>0.4866303074857391</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2064078208683286</v>
+        <v>0.6799396211500476</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1492829637506468</v>
+        <v>0.4751264066741924</v>
       </c>
       <c r="N5" t="n">
-        <v>1.001311204049203</v>
+        <v>1.013282142069104</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1556382485758482</v>
+        <v>0.4953535214535632</v>
       </c>
       <c r="P5" t="n">
-        <v>177.6076467537804</v>
+        <v>172.9766975641475</v>
       </c>
       <c r="Q5" t="n">
-        <v>281.2120918675774</v>
+        <v>276.5811426779445</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_28_8_3</t>
+          <t>model_28_8_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.996122131678182</v>
+        <v>0.9631980069805128</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7234583359311711</v>
+        <v>0.7679488251866166</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9953687363479428</v>
+        <v>0.5652008738786035</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9905695023328903</v>
+        <v>0.9203551664654219</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9937652814557476</v>
+        <v>0.8200038030647858</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02593132332393857</v>
+        <v>0.2460950967789068</v>
       </c>
       <c r="H6" t="n">
-        <v>1.849235380985536</v>
+        <v>1.551727274474507</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05266174413271899</v>
+        <v>0.9174360823033855</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05805402535912604</v>
+        <v>0.2658424506493476</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05535788139082133</v>
+        <v>0.5916392664763666</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2937306188173303</v>
+        <v>0.7007516848563577</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1610320568208038</v>
+        <v>0.4960797282482997</v>
       </c>
       <c r="N6" t="n">
-        <v>1.001525718683994</v>
+        <v>1.014479472663405</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1678875248619773</v>
+        <v>0.5171988693064354</v>
       </c>
       <c r="P6" t="n">
-        <v>177.3046072925174</v>
+        <v>172.8040744909552</v>
       </c>
       <c r="Q6" t="n">
-        <v>280.9090524063145</v>
+        <v>276.4085196047523</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_28_8_8</t>
+          <t>model_28_8_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9967307115807134</v>
+        <v>0.959955508310546</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7234391844503881</v>
+        <v>0.7637432545065748</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9955117363925252</v>
+        <v>0.4869036606277188</v>
       </c>
       <c r="E7" t="n">
-        <v>0.989001730390393</v>
+        <v>0.9091109779078449</v>
       </c>
       <c r="F7" t="n">
-        <v>0.993313362754537</v>
+        <v>0.7891636546975804</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02186174671345891</v>
+        <v>0.2677777003153088</v>
       </c>
       <c r="H7" t="n">
-        <v>1.849363447025717</v>
+        <v>1.579849944976819</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05103570158266394</v>
+        <v>1.082644989738283</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06770520977376127</v>
+        <v>0.3033738573841217</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05937045416092329</v>
+        <v>0.6930094235612025</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1898894874352152</v>
+        <v>0.7178149185993311</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1478571835030646</v>
+        <v>0.5174724150283847</v>
       </c>
       <c r="N7" t="n">
-        <v>1.001286277410867</v>
+        <v>1.015755209845031</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1541517699113545</v>
+        <v>0.5395022870517152</v>
       </c>
       <c r="P7" t="n">
-        <v>177.6460337897523</v>
+        <v>172.6351962382253</v>
       </c>
       <c r="Q7" t="n">
-        <v>281.2504789035493</v>
+        <v>276.2396413520223</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_28_8_9</t>
+          <t>model_28_8_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9967765872304487</v>
+        <v>0.9566367819196927</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7233964351402468</v>
+        <v>0.7595344659852188</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9955245319123061</v>
+        <v>0.4117280676013809</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9887370127607362</v>
+        <v>0.8987422890926079</v>
       </c>
       <c r="F8" t="n">
-        <v>0.993229788618058</v>
+        <v>0.7597699785615326</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0215549760324408</v>
+        <v>0.2899700389722748</v>
       </c>
       <c r="H8" t="n">
-        <v>1.849649311859475</v>
+        <v>1.607994133198815</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05089020470764852</v>
+        <v>1.241267207234785</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06933480818177536</v>
+        <v>0.3379829779301062</v>
       </c>
       <c r="K8" t="n">
-        <v>0.06011250644471194</v>
+        <v>0.789625092582446</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1750240210734497</v>
+        <v>0.7320581416996893</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1468161300145212</v>
+        <v>0.538488661879036</v>
       </c>
       <c r="N8" t="n">
-        <v>1.001268227974905</v>
+        <v>1.017060938261104</v>
       </c>
       <c r="O8" t="n">
-        <v>0.153066396620526</v>
+        <v>0.5614132390404273</v>
       </c>
       <c r="P8" t="n">
-        <v>177.6742971654188</v>
+        <v>172.4759553504551</v>
       </c>
       <c r="Q8" t="n">
-        <v>281.2787422792159</v>
+        <v>276.0804004642522</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_28_8_2</t>
+          <t>model_28_8_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.99586959510469</v>
+        <v>0.9533270034827002</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7233801562769453</v>
+        <v>0.7554100536542601</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9953140476334331</v>
+        <v>0.3402478582287314</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9909147276582975</v>
+        <v>0.8892396708452326</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9938499377212628</v>
+        <v>0.732002147516322</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02762003655370386</v>
+        <v>0.3121025426205725</v>
       </c>
       <c r="H9" t="n">
-        <v>1.849758168693329</v>
+        <v>1.635574097447108</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05328360531507065</v>
+        <v>1.392092080858749</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05592882258581923</v>
+        <v>0.3697012854505896</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05460622091535373</v>
+        <v>0.8808966831546692</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3219714803711648</v>
+        <v>0.744103653998754</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1661927692581836</v>
+        <v>0.5586613845797582</v>
       </c>
       <c r="N9" t="n">
-        <v>1.00162507733586</v>
+        <v>1.018363146170741</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1732679395119639</v>
+        <v>0.5824447563098119</v>
       </c>
       <c r="P9" t="n">
-        <v>177.1784276151027</v>
+        <v>172.3288469658497</v>
       </c>
       <c r="Q9" t="n">
-        <v>280.7828727288997</v>
+        <v>275.9332920796467</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_28_8_10</t>
+          <t>model_28_8_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9968088121333354</v>
+        <v>0.950085766764993</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7233493357296161</v>
+        <v>0.7514271796422506</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9955343043285779</v>
+        <v>0.2727703704902178</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9884902776174705</v>
+        <v>0.8805740687472342</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9931505123754695</v>
+        <v>0.7059440554712222</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02133948795845561</v>
+        <v>0.3337767074764028</v>
       </c>
       <c r="H10" t="n">
-        <v>1.849964265835234</v>
+        <v>1.662207594304864</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05077908331099985</v>
+        <v>1.534471120455099</v>
       </c>
       <c r="J10" t="n">
-        <v>0.07085370662910621</v>
+        <v>0.3986257592155307</v>
       </c>
       <c r="K10" t="n">
-        <v>0.06081639785587607</v>
+        <v>0.9665484398353147</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1616354236552548</v>
+        <v>0.7543948223595389</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1460804160675058</v>
+        <v>0.5777341148628864</v>
       </c>
       <c r="N10" t="n">
-        <v>1.001255549324589</v>
+        <v>1.01963838684656</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1522993618076483</v>
+        <v>0.6023294522070874</v>
       </c>
       <c r="P10" t="n">
-        <v>177.6943920556911</v>
+        <v>172.1945661001362</v>
       </c>
       <c r="Q10" t="n">
-        <v>281.2988371694881</v>
+        <v>275.7990112139332</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_28_8_11</t>
+          <t>model_28_8_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9968305097743396</v>
+        <v>0.946954026258542</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7232999276878249</v>
+        <v>0.7476226264626267</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9955417208920062</v>
+        <v>0.2094242211373967</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9882614625926524</v>
+        <v>0.8727025371436603</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9930759404703087</v>
+        <v>0.6816151512306314</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02119439573315172</v>
+        <v>0.3547186706633801</v>
       </c>
       <c r="H11" t="n">
-        <v>1.850294657638195</v>
+        <v>1.687648658935366</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05069475013652587</v>
+        <v>1.668132941741812</v>
       </c>
       <c r="J11" t="n">
-        <v>0.07226228905203375</v>
+        <v>0.424899745348597</v>
       </c>
       <c r="K11" t="n">
-        <v>0.06147851959427981</v>
+        <v>1.046516435293894</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1495861223177212</v>
+        <v>0.7632351045066121</v>
       </c>
       <c r="M11" t="n">
-        <v>0.145582951382199</v>
+        <v>0.5955826312640254</v>
       </c>
       <c r="N11" t="n">
-        <v>1.001247012547801</v>
+        <v>1.020870547045819</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1517807190207942</v>
+        <v>0.6209378169029454</v>
       </c>
       <c r="P11" t="n">
-        <v>177.7080369689224</v>
+        <v>172.0728605613744</v>
       </c>
       <c r="Q11" t="n">
-        <v>281.3124820827194</v>
+        <v>275.6773056751714</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_28_8_1</t>
+          <t>model_28_8_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.995545325043335</v>
+        <v>0.943959775477282</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7232515568389346</v>
+        <v>0.744019193031491</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9952455386819371</v>
+        <v>0.1502329584619057</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9912586555439316</v>
+        <v>0.8655769213674895</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9939252966639136</v>
+        <v>0.6589986266665664</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02978843194711096</v>
+        <v>0.3747412394249219</v>
       </c>
       <c r="H12" t="n">
-        <v>1.850618113727452</v>
+        <v>1.711744834881655</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05406261535326622</v>
+        <v>1.793027857285942</v>
       </c>
       <c r="J12" t="n">
-        <v>0.05381160683548356</v>
+        <v>0.4486839768706642</v>
       </c>
       <c r="K12" t="n">
-        <v>0.05393711109437489</v>
+        <v>1.120855917078303</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3533363938173746</v>
+        <v>0.7708763484133766</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1725932557984551</v>
+        <v>0.6121611221115908</v>
       </c>
       <c r="N12" t="n">
-        <v>1.001752658999344</v>
+        <v>1.022048612926971</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1799409080150885</v>
+        <v>0.6382220884280987</v>
       </c>
       <c r="P12" t="n">
-        <v>177.0272703010603</v>
+        <v>171.9630390387819</v>
       </c>
       <c r="Q12" t="n">
-        <v>280.6317154148574</v>
+        <v>275.567484152579</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_28_8_12</t>
+          <t>model_28_8_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9968440741295596</v>
+        <v>0.9411208798484333</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7232497883807103</v>
+        <v>0.7406293512608719</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9955471938960448</v>
+        <v>0.09514097754032513</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9880499111609163</v>
+        <v>0.859143021908056</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9930061083391406</v>
+        <v>0.6380490312001375</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02110369082733795</v>
+        <v>0.3937249475669464</v>
       </c>
       <c r="H13" t="n">
-        <v>1.850629939415741</v>
+        <v>1.734412722410571</v>
       </c>
       <c r="I13" t="n">
-        <v>0.05063251702695249</v>
+        <v>1.909273194745327</v>
       </c>
       <c r="J13" t="n">
-        <v>0.07356459701247038</v>
+        <v>0.4701593635796431</v>
       </c>
       <c r="K13" t="n">
-        <v>0.06209855701971143</v>
+        <v>1.189716279162485</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1387430275137718</v>
+        <v>0.7774921108259194</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1452710942594498</v>
+        <v>0.6274750573265414</v>
       </c>
       <c r="N13" t="n">
-        <v>1.001241675752304</v>
+        <v>1.023165555469469</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1514555854946963</v>
+        <v>0.6541879695693659</v>
       </c>
       <c r="P13" t="n">
-        <v>177.7166146661401</v>
+        <v>171.8642054321865</v>
       </c>
       <c r="Q13" t="n">
-        <v>281.3210597799372</v>
+        <v>275.4686505459836</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_28_8_13</t>
+          <t>model_28_8_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9968514983883126</v>
+        <v>0.9384481240960921</v>
       </c>
       <c r="C14" t="n">
-        <v>0.723200043415633</v>
+        <v>0.7374587150328707</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9955512544332559</v>
+        <v>0.04404774299385761</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9878550876627795</v>
+        <v>0.8533465132881703</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9929411706886087</v>
+        <v>0.6187065406489864</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02105404477487091</v>
+        <v>0.41159767758976</v>
       </c>
       <c r="H14" t="n">
-        <v>1.850962584226267</v>
+        <v>1.755614781466653</v>
       </c>
       <c r="I14" t="n">
-        <v>0.050586344969451</v>
+        <v>2.01708108606439</v>
       </c>
       <c r="J14" t="n">
-        <v>0.07476392802347737</v>
+        <v>0.4895072357307158</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0626751364964642</v>
+        <v>1.253294160897553</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1289788890122009</v>
+        <v>0.7832450292914266</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1451001198306566</v>
+        <v>0.6415587873217543</v>
       </c>
       <c r="N14" t="n">
-        <v>1.001238754732467</v>
+        <v>1.024217131503177</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1512773323305035</v>
+        <v>0.6688712731078152</v>
       </c>
       <c r="P14" t="n">
-        <v>177.7213251729743</v>
+        <v>171.7754178348685</v>
       </c>
       <c r="Q14" t="n">
-        <v>281.3257702867713</v>
+        <v>275.3798629486656</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_28_8_14</t>
+          <t>model_28_8_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9968542618104347</v>
+        <v>0.9359463652342702</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7231515357627875</v>
+        <v>0.7345071791574107</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9955540639784672</v>
+        <v>-0.003189469790590316</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9876761067320501</v>
+        <v>0.8481323581454913</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9928809239936919</v>
+        <v>0.6008974000147216</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02103556575841584</v>
+        <v>0.4283269506183036</v>
       </c>
       <c r="H15" t="n">
-        <v>1.851286955124203</v>
+        <v>1.775351715456427</v>
       </c>
       <c r="I15" t="n">
-        <v>0.05055439784612373</v>
+        <v>2.11675268343507</v>
       </c>
       <c r="J15" t="n">
-        <v>0.07586573238822499</v>
+        <v>0.5069112997444085</v>
       </c>
       <c r="K15" t="n">
-        <v>0.06321006511717436</v>
+        <v>1.311831991589739</v>
       </c>
       <c r="L15" t="n">
-        <v>0.120193345088437</v>
+        <v>0.7882489939875813</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1450364290735808</v>
+        <v>0.6544669209504049</v>
       </c>
       <c r="N15" t="n">
-        <v>1.001237667484419</v>
+        <v>1.025201430071762</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1512109301260409</v>
+        <v>0.6823289327085578</v>
       </c>
       <c r="P15" t="n">
-        <v>177.7230813325023</v>
+        <v>171.6957369434244</v>
       </c>
       <c r="Q15" t="n">
-        <v>281.3275264462994</v>
+        <v>275.3001820572214</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_28_8_15</t>
+          <t>model_28_8_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9968535947611251</v>
+        <v>0.9336160630473765</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7231049131889239</v>
+        <v>0.7317707076290538</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9955560336216547</v>
+        <v>-0.0467427199642072</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9875119711315402</v>
+        <v>0.8434483211014827</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9928252857838479</v>
+        <v>0.5845398614975215</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02104002632022006</v>
+        <v>0.4439096920721164</v>
       </c>
       <c r="H16" t="n">
-        <v>1.851598720490306</v>
+        <v>1.793650513166842</v>
       </c>
       <c r="I16" t="n">
-        <v>0.05053200118435691</v>
+        <v>2.208651035594376</v>
       </c>
       <c r="J16" t="n">
-        <v>0.07687614908633479</v>
+        <v>0.5225459094416081</v>
       </c>
       <c r="K16" t="n">
-        <v>0.06370407513534584</v>
+        <v>1.365598472517992</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1122832766735711</v>
+        <v>0.7926112344123831</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1450518056427429</v>
+        <v>0.6662654816753727</v>
       </c>
       <c r="N16" t="n">
-        <v>1.001237929930049</v>
+        <v>1.026118270276442</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1512269613075861</v>
+        <v>0.6946297825899752</v>
       </c>
       <c r="P16" t="n">
-        <v>177.7226572803048</v>
+        <v>171.6242682669434</v>
       </c>
       <c r="Q16" t="n">
-        <v>281.3271023941018</v>
+        <v>275.2287133807405</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_28_8_16</t>
+          <t>model_28_8_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9968504236064522</v>
+        <v>0.9314546062816484</v>
       </c>
       <c r="C17" t="n">
-        <v>0.723060463547158</v>
+        <v>0.7292425901281696</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9955572276837693</v>
+        <v>-0.08679731991955064</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9873619221377928</v>
+        <v>0.8392439089016787</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9927740342257277</v>
+        <v>0.569548822835888</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02106123184611992</v>
+        <v>0.4583633634171336</v>
       </c>
       <c r="H17" t="n">
-        <v>1.851895955449466</v>
+        <v>1.810556046536166</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05051842359554234</v>
+        <v>2.293167155921167</v>
       </c>
       <c r="J17" t="n">
-        <v>0.07779984880989298</v>
+        <v>0.5365796036956197</v>
       </c>
       <c r="K17" t="n">
-        <v>0.06415913620271765</v>
+        <v>1.414873330923361</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1051634357262876</v>
+        <v>0.7964223739482007</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1451248836213829</v>
+        <v>0.6770253787097893</v>
       </c>
       <c r="N17" t="n">
-        <v>1.001239177597461</v>
+        <v>1.026968679495745</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1513031503670691</v>
+        <v>0.7058477507172043</v>
       </c>
       <c r="P17" t="n">
-        <v>177.720642563537</v>
+        <v>171.5601860790262</v>
       </c>
       <c r="Q17" t="n">
-        <v>281.325087677334</v>
+        <v>275.1646311928233</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_28_8_0</t>
+          <t>model_28_8_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9951311289187972</v>
+        <v>0.929456926042349</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7230573646645031</v>
+        <v>0.7269140340642809</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9951599208969608</v>
+        <v>-0.1235528921657982</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9915920607963141</v>
+        <v>0.8354720917512297</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9939860496116031</v>
+        <v>0.555836287714238</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03255816333909297</v>
+        <v>0.4717218603758009</v>
       </c>
       <c r="H18" t="n">
-        <v>1.851916677692048</v>
+        <v>1.826127111657404</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05503616862606035</v>
+        <v>2.370722252467064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.05175916828346665</v>
+        <v>0.5491693608735446</v>
       </c>
       <c r="K18" t="n">
-        <v>0.05339768747028178</v>
+        <v>1.459945806670304</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3881682769718318</v>
+        <v>0.7997524998635898</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1804388077412755</v>
+        <v>0.686820107725306</v>
       </c>
       <c r="N18" t="n">
-        <v>1.001915621408998</v>
+        <v>1.027754652048912</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1881204613466461</v>
+        <v>0.7160594616247957</v>
       </c>
       <c r="P18" t="n">
-        <v>176.8494542958867</v>
+        <v>171.5027314919089</v>
       </c>
       <c r="Q18" t="n">
-        <v>280.4538994096837</v>
+        <v>275.1071766057059</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9968455023016725</v>
+        <v>0.9276164610561654</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7230184565380882</v>
+        <v>0.7247749838878759</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9955579147887819</v>
+        <v>-0.157212538537669</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9872249308455239</v>
+        <v>0.8320904127370413</v>
       </c>
       <c r="F19" t="n">
-        <v>0.992726982288568</v>
+        <v>0.5433155725752987</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02109414063384286</v>
+        <v>0.4840290582129725</v>
       </c>
       <c r="H19" t="n">
-        <v>1.85217685651254</v>
+        <v>1.840430950036445</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0505106105770914</v>
+        <v>2.441744874740009</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0786431654869227</v>
+        <v>0.560456895752389</v>
       </c>
       <c r="K19" t="n">
-        <v>0.06457690895990079</v>
+        <v>1.501100824646755</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0987527618169959</v>
+        <v>0.8026696192663496</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1452382202928791</v>
+        <v>0.6957219690458053</v>
       </c>
       <c r="N19" t="n">
-        <v>1.001241113848522</v>
+        <v>1.028478769420525</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1514213120153101</v>
+        <v>0.725340293611102</v>
       </c>
       <c r="P19" t="n">
-        <v>177.7175199442862</v>
+        <v>171.4512206728752</v>
       </c>
       <c r="Q19" t="n">
-        <v>281.3219650580832</v>
+        <v>275.0556657866723</v>
       </c>
     </row>
     <row r="20">
@@ -1512,382 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9968393914848735</v>
+        <v>0.9259254538075798</v>
       </c>
       <c r="C20" t="n">
-        <v>0.72297903550904</v>
+        <v>0.7228145392206319</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9955582329532281</v>
+        <v>-0.1879799379765383</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9870999916356356</v>
+        <v>0.8290586280797987</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9926838768103728</v>
+        <v>0.5319007990940212</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02113500369391453</v>
+        <v>0.4953368314706361</v>
       </c>
       <c r="H20" t="n">
-        <v>1.852440465115302</v>
+        <v>1.853540452553323</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05050699275355239</v>
+        <v>2.506664789956164</v>
       </c>
       <c r="J20" t="n">
-        <v>0.07941228969597654</v>
+        <v>0.5705765360021554</v>
       </c>
       <c r="K20" t="n">
-        <v>0.06495964122476447</v>
+        <v>1.53862066297916</v>
       </c>
       <c r="L20" t="n">
-        <v>0.09298707223017633</v>
+        <v>0.8052324912076102</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1453788282175728</v>
+        <v>0.703801698968279</v>
       </c>
       <c r="N20" t="n">
-        <v>1.001243518104312</v>
+        <v>1.029144083747837</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1515679059104566</v>
+        <v>0.7337639943637221</v>
       </c>
       <c r="P20" t="n">
-        <v>177.7136493403725</v>
+        <v>171.4050345604182</v>
       </c>
       <c r="Q20" t="n">
-        <v>281.3180944541696</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>model_28_8_19</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.9968325202188256</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.722942238514537</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.9955582260378316</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.986986239335143</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.9926444388835515</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.02118095188161609</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1.852686526786979</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.05050707138799475</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.08011254743110037</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.06530980940954756</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.08779594887957137</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.1455367715789247</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.001246221553249</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.151732573247689</v>
-      </c>
-      <c r="P21" t="n">
-        <v>177.7093059946879</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>281.313751108485</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>model_28_8_20</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.9968252614749309</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.7229081269180273</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.995557995972575</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.9868829965236782</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.9926085001567638</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.02122949113546393</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1.852914631189908</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.0505096874424006</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.08074810888358087</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.06562890830081716</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.08311948065819788</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.145703435565068</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.001249077452486</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.1519063324647645</v>
-      </c>
-      <c r="P22" t="n">
-        <v>177.7047279453596</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>281.3091730591567</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>model_28_8_21</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.9968178113327294</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.7228765055837685</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.9955576285206695</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9867890613673614</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.9925757023429483</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.02127931027067007</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1.8531260831977</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.0505138657098624</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.08132637252770906</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.06592011911878573</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.0789166083985581</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.1458742961274195</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1.001252008655975</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0.1520844669149854</v>
-      </c>
-      <c r="P23" t="n">
-        <v>177.7000400542531</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>281.3044851680502</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>model_28_8_22</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.9968103700374861</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.7228473702610994</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.9955570910153939</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.9867038793121795</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.9925458264383986</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.02132907024622591</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1.853320911234545</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.0505199776411667</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.08185075219103487</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.06618538639087979</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.07513229625947741</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.1460447542578162</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.001254936378694</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.15226218180089</v>
-      </c>
-      <c r="P24" t="n">
-        <v>177.6953686729357</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>281.2998137867328</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>model_28_8_23</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.9968031166870608</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.7228205893456882</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.9955565628682607</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.9866267149283587</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.9925187407782103</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.02137757343391859</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1.853499995339214</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.05052598316175162</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.08232577517002129</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.06642587916588646</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.07172644757221697</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.1462107158655568</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.001257790155911</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.1524352087378601</v>
-      </c>
-      <c r="P25" t="n">
-        <v>177.6908257536737</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>281.2952708674708</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>model_28_8_24</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.9967960947825618</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.7227960387227362</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.9955559228496944</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.9865568303591903</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.9924941025866805</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.0214245289416362</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1.853664165467938</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.050533260763829</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.08275598370131247</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.06664464093912681</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.06865816583783856</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.1463712025694816</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.001260552872435</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.1526025276930242</v>
-      </c>
-      <c r="P26" t="n">
-        <v>177.6864376022561</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>281.2908827160531</v>
+        <v>275.0094796742153</v>
       </c>
     </row>
   </sheetData>
